--- a/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,37</t>
+          <t>46,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,44</t>
+          <t>46,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,4</t>
+          <t>46,26</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,71; 46,9</t>
+          <t>45,39; 46,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,82; 46,92</t>
+          <t>45,66; 46,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,02; 46,75</t>
+          <t>45,71; 46,73</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,82</t>
+          <t>47,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,17</t>
+          <t>46,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,52</t>
+          <t>46,78</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,3; 47,23</t>
+          <t>46,38; 47,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,59; 46,71</t>
+          <t>45,65; 47,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,14; 46,9</t>
+          <t>46,3; 47,21</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,89</t>
+          <t>46,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>45,59</t>
+          <t>45,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,81</t>
+          <t>46,25</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,31; 46,41</t>
+          <t>45,37; 46,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,68; 46,33</t>
+          <t>44,44; 46,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,31; 46,25</t>
+          <t>45,41; 46,89</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,06</t>
+          <t>45,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,27</t>
+          <t>46,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,16</t>
+          <t>46,24</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,68; 46,46</t>
+          <t>45,24; 46,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,86; 46,85</t>
+          <t>45,69; 47,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,84; 46,54</t>
+          <t>45,67; 47,1</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,2</t>
+          <t>46,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,87</t>
+          <t>44,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,37</t>
+          <t>45,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,61; 46,7</t>
+          <t>45,36; 47,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,36; 45,31</t>
+          <t>43,5; 45,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,94; 45,73</t>
+          <t>44,25; 45,59</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,27</t>
+          <t>46,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,7</t>
+          <t>44,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,06</t>
+          <t>44,82</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,13; 47,01</t>
+          <t>44,69; 47,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,19; 45,15</t>
+          <t>43,64; 44,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,63; 45,47</t>
+          <t>44,18; 45,36</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,23</t>
+          <t>46,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45,56</t>
+          <t>45,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>45,88</t>
+          <t>45,92</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>46,01; 46,45</t>
+          <t>45,97; 46,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,32; 45,86</t>
+          <t>45,13; 46,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,73; 46,06</t>
+          <t>45,63; 46,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (SF12 mental)</t>
+          <t>Calidad de vida asociada a la salud (SF12 mental) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,39; 46,85</t>
+          <t>45,35; 46,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,66; 46,99</t>
+          <t>45,67; 46,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,71; 46,73</t>
+          <t>45,69; 46,71</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,38; 47,5</t>
+          <t>46,43; 47,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,65; 47,11</t>
+          <t>45,73; 47,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,3; 47,21</t>
+          <t>46,25; 47,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,37; 46,97</t>
+          <t>45,24; 46,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,44; 46,98</t>
+          <t>44,45; 46,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,41; 46,89</t>
+          <t>45,45; 46,9</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,24; 46,34</t>
+          <t>45,22; 46,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,69; 47,54</t>
+          <t>45,67; 47,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 47,1</t>
+          <t>45,7; 47,06</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,36; 47,13</t>
+          <t>45,39; 47,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,5; 45,12</t>
+          <t>43,54; 45,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,25; 45,59</t>
+          <t>44,28; 45,61</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,69; 47,44</t>
+          <t>44,81; 47,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,64; 44,89</t>
+          <t>43,63; 44,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,18; 45,36</t>
+          <t>44,13; 45,34</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,97; 46,62</t>
+          <t>45,94; 46,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,13; 46,26</t>
+          <t>45,18; 46,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,63; 46,26</t>
+          <t>45,65; 46,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,18</t>
+          <t>46,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,35</t>
+          <t>46,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,26</t>
+          <t>46,19</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,35; 46,83</t>
+          <t>45,32; 46,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,67; 46,96</t>
+          <t>45,59; 46,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,69; 46,71</t>
+          <t>45,64; 46,61</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,04</t>
+          <t>46,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,45</t>
+          <t>46,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,78</t>
+          <t>46,68</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,43; 47,55</t>
+          <t>46,31; 47,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,73; 47,09</t>
+          <t>45,71; 47,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,25; 47,2</t>
+          <t>46,19; 47,1</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,34</t>
+          <t>45,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>45,79</t>
+          <t>45,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,25</t>
+          <t>45,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,24; 46,89</t>
+          <t>44,65; 46,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,94</t>
+          <t>44,45; 46,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,45; 46,9</t>
+          <t>44,92; 46,26</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,81</t>
+          <t>45,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,6</t>
+          <t>45,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,24</t>
+          <t>45,78</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,22; 46,33</t>
+          <t>45,18; 46,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 47,51</t>
+          <t>45,28; 46,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,7; 47,06</t>
+          <t>45,39; 46,15</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,37</t>
+          <t>46,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,33</t>
+          <t>44,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,01</t>
+          <t>45,42</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,39; 47,17</t>
+          <t>45,67; 47,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,54; 45,06</t>
+          <t>44,09; 45,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,28; 45,61</t>
+          <t>44,91; 45,87</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,33</t>
+          <t>46,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,31</t>
+          <t>44,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,82</t>
+          <t>44,7</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,81; 47,49</t>
+          <t>44,66; 47,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,63; 44,9</t>
+          <t>43,61; 44,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,13; 45,34</t>
+          <t>44,05; 45,18</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,29</t>
+          <t>46,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45,57</t>
+          <t>45,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>45,92</t>
+          <t>45,73</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,94; 46,58</t>
+          <t>45,81; 46,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,18; 46,3</t>
+          <t>45,1; 45,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,65; 46,28</t>
+          <t>45,54; 45,92</t>
         </is>
       </c>
     </row>
